--- a/padron.xlsx
+++ b/padron.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\padron_fotografico_php\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\padron_fotografico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B3BED-A1FB-412A-B849-EA9FFC3A723E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC92A6-E77A-4B24-A3B3-15B14134C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92F69589-EE0D-456F-921F-F4259C09A3E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92F69589-EE0D-456F-921F-F4259C09A3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$220</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="624">
   <si>
     <t>DNI</t>
   </si>
@@ -1885,6 +1888,18 @@
   </si>
   <si>
     <t>AULA</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -2266,24 +2281,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F138C062-E54C-4F51-A96C-F2A7888B6AA6}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2311,8 +2326,11 @@
       <c r="I1" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60284240</v>
       </c>
@@ -2340,8 +2358,11 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>61337161</v>
       </c>
@@ -2369,8 +2390,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60226646</v>
       </c>
@@ -2398,8 +2422,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60483551</v>
       </c>
@@ -2427,8 +2454,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>74628708</v>
       </c>
@@ -2456,8 +2486,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60919057</v>
       </c>
@@ -2485,8 +2518,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>75820559</v>
       </c>
@@ -2514,8 +2550,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>61228769</v>
       </c>
@@ -2543,8 +2582,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>74502104</v>
       </c>
@@ -2572,8 +2614,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>61228716</v>
       </c>
@@ -2601,8 +2646,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>60158719</v>
       </c>
@@ -2630,8 +2678,11 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>60484752</v>
       </c>
@@ -2659,8 +2710,11 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60196669</v>
       </c>
@@ -2688,8 +2742,11 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>61229012</v>
       </c>
@@ -2717,8 +2774,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>75001183</v>
       </c>
@@ -2746,8 +2806,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>77035079</v>
       </c>
@@ -2775,8 +2838,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>74596484</v>
       </c>
@@ -2804,8 +2870,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>61228986</v>
       </c>
@@ -2833,8 +2902,11 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>61228684</v>
       </c>
@@ -2862,8 +2934,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>61228826</v>
       </c>
@@ -2891,8 +2966,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>61229018</v>
       </c>
@@ -2920,8 +2998,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>60294003</v>
       </c>
@@ -2949,8 +3030,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>60918957</v>
       </c>
@@ -2978,8 +3062,11 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>60507808</v>
       </c>
@@ -3007,8 +3094,11 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>60919085</v>
       </c>
@@ -3036,8 +3126,11 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>60608956</v>
       </c>
@@ -3065,8 +3158,11 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>75412778</v>
       </c>
@@ -3094,8 +3190,11 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>63136374</v>
       </c>
@@ -3123,8 +3222,11 @@
       <c r="I29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>61228739</v>
       </c>
@@ -3152,8 +3254,11 @@
       <c r="I30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>60154801</v>
       </c>
@@ -3181,8 +3286,11 @@
       <c r="I31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>72350176</v>
       </c>
@@ -3210,8 +3318,11 @@
       <c r="I32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>61027677</v>
       </c>
@@ -3239,8 +3350,11 @@
       <c r="I33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>61027678</v>
       </c>
@@ -3268,8 +3382,11 @@
       <c r="I34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>72442157</v>
       </c>
@@ -3297,8 +3414,11 @@
       <c r="I35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>60847529</v>
       </c>
@@ -3326,8 +3446,11 @@
       <c r="I36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>61228857</v>
       </c>
@@ -3355,8 +3478,11 @@
       <c r="I37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>60053791</v>
       </c>
@@ -3384,8 +3510,11 @@
       <c r="I38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>60425761</v>
       </c>
@@ -3413,8 +3542,11 @@
       <c r="I39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>60918991</v>
       </c>
@@ -3442,8 +3574,11 @@
       <c r="I40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>75608781</v>
       </c>
@@ -3471,8 +3606,11 @@
       <c r="I41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>60298419</v>
       </c>
@@ -3500,8 +3638,11 @@
       <c r="I42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>60426010</v>
       </c>
@@ -3529,8 +3670,11 @@
       <c r="I43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60503800</v>
       </c>
@@ -3558,8 +3702,11 @@
       <c r="I44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>60553022</v>
       </c>
@@ -3587,8 +3734,11 @@
       <c r="I45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>60447503</v>
       </c>
@@ -3616,8 +3766,11 @@
       <c r="I46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>71820316</v>
       </c>
@@ -3645,8 +3798,11 @@
       <c r="I47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>60344199</v>
       </c>
@@ -3674,8 +3830,11 @@
       <c r="I48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>60551124</v>
       </c>
@@ -3703,8 +3862,11 @@
       <c r="I49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>76847518</v>
       </c>
@@ -3732,8 +3894,11 @@
       <c r="I50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>72390991</v>
       </c>
@@ -3761,8 +3926,11 @@
       <c r="I51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>72278782</v>
       </c>
@@ -3790,8 +3958,11 @@
       <c r="I52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>60918791</v>
       </c>
@@ -3819,8 +3990,11 @@
       <c r="I53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>60248749</v>
       </c>
@@ -3848,8 +4022,11 @@
       <c r="I54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>61061983</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="I55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>60552963</v>
       </c>
@@ -3906,8 +4086,11 @@
       <c r="I56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>61027718</v>
       </c>
@@ -3935,8 +4118,11 @@
       <c r="I57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>71707255</v>
       </c>
@@ -3964,8 +4150,11 @@
       <c r="I58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>76092400</v>
       </c>
@@ -3993,8 +4182,11 @@
       <c r="I59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>61228908</v>
       </c>
@@ -4022,8 +4214,11 @@
       <c r="I60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61224791</v>
       </c>
@@ -4051,8 +4246,11 @@
       <c r="I61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>70630956</v>
       </c>
@@ -4080,8 +4278,11 @@
       <c r="I62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61229070</v>
       </c>
@@ -4109,8 +4310,11 @@
       <c r="I63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>60204791</v>
       </c>
@@ -4138,8 +4342,11 @@
       <c r="I64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>60918827</v>
       </c>
@@ -4167,8 +4374,11 @@
       <c r="I65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60442262</v>
       </c>
@@ -4196,8 +4406,11 @@
       <c r="I66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>60356651</v>
       </c>
@@ -4225,8 +4438,11 @@
       <c r="I67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>60455385</v>
       </c>
@@ -4254,8 +4470,11 @@
       <c r="I68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>60257760</v>
       </c>
@@ -4283,8 +4502,11 @@
       <c r="I69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>60283982</v>
       </c>
@@ -4312,8 +4534,11 @@
       <c r="I70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>75412899</v>
       </c>
@@ -4341,8 +4566,11 @@
       <c r="I71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>60334464</v>
       </c>
@@ -4370,8 +4598,11 @@
       <c r="I72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>61061830</v>
       </c>
@@ -4399,8 +4630,11 @@
       <c r="I73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>75875810</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="I74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>60159363</v>
       </c>
@@ -4457,8 +4694,11 @@
       <c r="I75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>61028056</v>
       </c>
@@ -4486,8 +4726,11 @@
       <c r="I76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76686703</v>
       </c>
@@ -4515,8 +4758,11 @@
       <c r="I77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>74442930</v>
       </c>
@@ -4544,8 +4790,11 @@
       <c r="I78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>60221351</v>
       </c>
@@ -4573,8 +4822,11 @@
       <c r="I79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>71575365</v>
       </c>
@@ -4602,8 +4854,11 @@
       <c r="I80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>60155007</v>
       </c>
@@ -4631,8 +4886,11 @@
       <c r="I81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>75143572</v>
       </c>
@@ -4660,8 +4918,11 @@
       <c r="I82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>60425967</v>
       </c>
@@ -4689,8 +4950,11 @@
       <c r="I83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>74639179</v>
       </c>
@@ -4718,8 +4982,11 @@
       <c r="I84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>60426038</v>
       </c>
@@ -4747,8 +5014,11 @@
       <c r="I85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>60334462</v>
       </c>
@@ -4776,8 +5046,11 @@
       <c r="I86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>61228798</v>
       </c>
@@ -4805,8 +5078,11 @@
       <c r="I87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>62009115</v>
       </c>
@@ -4834,8 +5110,11 @@
       <c r="I88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>60337372</v>
       </c>
@@ -4863,8 +5142,11 @@
       <c r="I89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>76734564</v>
       </c>
@@ -4892,8 +5174,11 @@
       <c r="I90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>71448050</v>
       </c>
@@ -4921,8 +5206,11 @@
       <c r="I91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>61027743</v>
       </c>
@@ -4950,8 +5238,11 @@
       <c r="I92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>60406732</v>
       </c>
@@ -4979,8 +5270,11 @@
       <c r="I93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>60284228</v>
       </c>
@@ -5008,8 +5302,11 @@
       <c r="I94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>60266724</v>
       </c>
@@ -5037,8 +5334,11 @@
       <c r="I95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>60484764</v>
       </c>
@@ -5066,8 +5366,11 @@
       <c r="I96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>61228933</v>
       </c>
@@ -5095,8 +5398,11 @@
       <c r="I97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>71909308</v>
       </c>
@@ -5124,8 +5430,11 @@
       <c r="I98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>60600652</v>
       </c>
@@ -5153,8 +5462,11 @@
       <c r="I99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>61027929</v>
       </c>
@@ -5182,8 +5494,11 @@
       <c r="I100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>60225519</v>
       </c>
@@ -5211,8 +5526,11 @@
       <c r="I101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>60421176</v>
       </c>
@@ -5240,8 +5558,11 @@
       <c r="I102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>60158918</v>
       </c>
@@ -5269,8 +5590,11 @@
       <c r="I103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>77067908</v>
       </c>
@@ -5298,8 +5622,11 @@
       <c r="I104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>60626551</v>
       </c>
@@ -5327,8 +5654,11 @@
       <c r="I105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>61149325</v>
       </c>
@@ -5356,8 +5686,11 @@
       <c r="I106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>61228965</v>
       </c>
@@ -5385,8 +5718,11 @@
       <c r="I107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>75955863</v>
       </c>
@@ -5414,8 +5750,11 @@
       <c r="I108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>61027697</v>
       </c>
@@ -5443,8 +5782,11 @@
       <c r="I109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>74856049</v>
       </c>
@@ -5472,8 +5814,11 @@
       <c r="I110">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>61027745</v>
       </c>
@@ -5501,8 +5846,11 @@
       <c r="I111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>60425789</v>
       </c>
@@ -5530,8 +5878,11 @@
       <c r="I112">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>60425895</v>
       </c>
@@ -5559,8 +5910,11 @@
       <c r="I113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>61479554</v>
       </c>
@@ -5588,8 +5942,11 @@
       <c r="I114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>74567453</v>
       </c>
@@ -5617,8 +5974,11 @@
       <c r="I115">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>75412792</v>
       </c>
@@ -5646,8 +6006,11 @@
       <c r="I116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>60309594</v>
       </c>
@@ -5675,8 +6038,11 @@
       <c r="I117">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>60425812</v>
       </c>
@@ -5704,8 +6070,11 @@
       <c r="I118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>60919191</v>
       </c>
@@ -5733,8 +6102,11 @@
       <c r="I119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>61027863</v>
       </c>
@@ -5762,8 +6134,11 @@
       <c r="I120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>60154961</v>
       </c>
@@ -5791,8 +6166,11 @@
       <c r="I121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>74037711</v>
       </c>
@@ -5820,8 +6198,11 @@
       <c r="I122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>60158661</v>
       </c>
@@ -5849,8 +6230,11 @@
       <c r="I123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>60918775</v>
       </c>
@@ -5878,8 +6262,11 @@
       <c r="I124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>60425985</v>
       </c>
@@ -5907,8 +6294,11 @@
       <c r="I125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>60158601</v>
       </c>
@@ -5936,8 +6326,11 @@
       <c r="I126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>60052947</v>
       </c>
@@ -5965,8 +6358,11 @@
       <c r="I127">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>76858142</v>
       </c>
@@ -5994,8 +6390,11 @@
       <c r="I128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>60269956</v>
       </c>
@@ -6023,8 +6422,11 @@
       <c r="I129">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>60918907</v>
       </c>
@@ -6052,8 +6454,11 @@
       <c r="I130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>62725858</v>
       </c>
@@ -6081,8 +6486,11 @@
       <c r="I131">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>60056387</v>
       </c>
@@ -6110,8 +6518,11 @@
       <c r="I132">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>61028016</v>
       </c>
@@ -6139,8 +6550,11 @@
       <c r="I133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>60918795</v>
       </c>
@@ -6168,8 +6582,11 @@
       <c r="I134">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>60225592</v>
       </c>
@@ -6197,8 +6614,11 @@
       <c r="I135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>61027886</v>
       </c>
@@ -6226,8 +6646,11 @@
       <c r="I136">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>74635446</v>
       </c>
@@ -6255,8 +6678,11 @@
       <c r="I137">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>60919069</v>
       </c>
@@ -6284,8 +6710,11 @@
       <c r="I138">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>70849706</v>
       </c>
@@ -6313,8 +6742,11 @@
       <c r="I139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>60155589</v>
       </c>
@@ -6342,8 +6774,11 @@
       <c r="I140">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>60620874</v>
       </c>
@@ -6371,8 +6806,11 @@
       <c r="I141">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>60453052</v>
       </c>
@@ -6400,8 +6838,11 @@
       <c r="I142">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>60337364</v>
       </c>
@@ -6429,8 +6870,11 @@
       <c r="I143">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>71547997</v>
       </c>
@@ -6458,8 +6902,11 @@
       <c r="I144">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>60874252</v>
       </c>
@@ -6487,8 +6934,11 @@
       <c r="I145">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>60160701</v>
       </c>
@@ -6516,8 +6966,11 @@
       <c r="I146">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>74376780</v>
       </c>
@@ -6545,8 +6998,11 @@
       <c r="I147">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>75446084</v>
       </c>
@@ -6574,8 +7030,11 @@
       <c r="I148">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>60425894</v>
       </c>
@@ -6603,8 +7062,11 @@
       <c r="I149">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>75885107</v>
       </c>
@@ -6632,8 +7094,11 @@
       <c r="I150">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>60216618</v>
       </c>
@@ -6661,8 +7126,11 @@
       <c r="I151">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>60500536</v>
       </c>
@@ -6690,8 +7158,11 @@
       <c r="I152">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>60403814</v>
       </c>
@@ -6719,8 +7190,11 @@
       <c r="I153">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>60216648</v>
       </c>
@@ -6748,8 +7222,11 @@
       <c r="I154">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>60298429</v>
       </c>
@@ -6777,8 +7254,11 @@
       <c r="I155">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>73779201</v>
       </c>
@@ -6806,8 +7286,11 @@
       <c r="I156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>61228956</v>
       </c>
@@ -6835,8 +7318,11 @@
       <c r="I157">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>60330901</v>
       </c>
@@ -6864,8 +7350,11 @@
       <c r="I158">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>60154417</v>
       </c>
@@ -6893,8 +7382,11 @@
       <c r="I159">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>61027966</v>
       </c>
@@ -6922,8 +7414,11 @@
       <c r="I160">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>61228706</v>
       </c>
@@ -6951,8 +7446,11 @@
       <c r="I161">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>60484779</v>
       </c>
@@ -6980,8 +7478,11 @@
       <c r="I162">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>60225527</v>
       </c>
@@ -7009,8 +7510,11 @@
       <c r="I163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>76519001</v>
       </c>
@@ -7038,8 +7542,11 @@
       <c r="I164">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>60283975</v>
       </c>
@@ -7067,8 +7574,11 @@
       <c r="I165">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>60918846</v>
       </c>
@@ -7096,8 +7606,11 @@
       <c r="I166">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>60311323</v>
       </c>
@@ -7125,8 +7638,11 @@
       <c r="I167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>62180927</v>
       </c>
@@ -7154,8 +7670,11 @@
       <c r="I168">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>60425865</v>
       </c>
@@ -7183,8 +7702,11 @@
       <c r="I169">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>60426008</v>
       </c>
@@ -7212,8 +7734,11 @@
       <c r="I170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>61228791</v>
       </c>
@@ -7241,8 +7766,11 @@
       <c r="I171">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>61228947</v>
       </c>
@@ -7270,8 +7798,11 @@
       <c r="I172">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>61149379</v>
       </c>
@@ -7299,8 +7830,11 @@
       <c r="I173">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>60154390</v>
       </c>
@@ -7328,8 +7862,11 @@
       <c r="I174">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>77080866</v>
       </c>
@@ -7357,8 +7894,11 @@
       <c r="I175">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>60919064</v>
       </c>
@@ -7386,8 +7926,11 @@
       <c r="I176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>73414275</v>
       </c>
@@ -7415,8 +7958,11 @@
       <c r="I177">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>61229030</v>
       </c>
@@ -7444,8 +7990,11 @@
       <c r="I178">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>60480657</v>
       </c>
@@ -7473,8 +8022,11 @@
       <c r="I179">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>61028063</v>
       </c>
@@ -7502,8 +8054,11 @@
       <c r="I180">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>71799986</v>
       </c>
@@ -7531,8 +8086,11 @@
       <c r="I181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>73782162</v>
       </c>
@@ -7560,8 +8118,11 @@
       <c r="I182">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>60136988</v>
       </c>
@@ -7589,8 +8150,11 @@
       <c r="I183">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>61027754</v>
       </c>
@@ -7618,8 +8182,11 @@
       <c r="I184">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>60847572</v>
       </c>
@@ -7647,8 +8214,11 @@
       <c r="I185">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>60481928</v>
       </c>
@@ -7676,8 +8246,11 @@
       <c r="I186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>75934841</v>
       </c>
@@ -7705,8 +8278,11 @@
       <c r="I187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>76682352</v>
       </c>
@@ -7734,8 +8310,11 @@
       <c r="I188">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>60919078</v>
       </c>
@@ -7763,8 +8342,11 @@
       <c r="I189">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>60847523</v>
       </c>
@@ -7792,8 +8374,11 @@
       <c r="I190">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>60919181</v>
       </c>
@@ -7821,8 +8406,11 @@
       <c r="I191">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>60052686</v>
       </c>
@@ -7850,8 +8438,11 @@
       <c r="I192">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>75573813</v>
       </c>
@@ -7879,8 +8470,11 @@
       <c r="I193">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>60248716</v>
       </c>
@@ -7908,8 +8502,11 @@
       <c r="I194">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>71967127</v>
       </c>
@@ -7937,8 +8534,11 @@
       <c r="I195">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>61228886</v>
       </c>
@@ -7966,8 +8566,11 @@
       <c r="I196">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>60344168</v>
       </c>
@@ -7995,8 +8598,11 @@
       <c r="I197">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>72462782</v>
       </c>
@@ -8024,8 +8630,11 @@
       <c r="I198">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>71029535</v>
       </c>
@@ -8053,8 +8662,11 @@
       <c r="I199">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>60202101</v>
       </c>
@@ -8082,8 +8694,11 @@
       <c r="I200">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>60344189</v>
       </c>
@@ -8111,8 +8726,11 @@
       <c r="I201">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>60490195</v>
       </c>
@@ -8140,8 +8758,11 @@
       <c r="I202">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>74857361</v>
       </c>
@@ -8169,8 +8790,11 @@
       <c r="I203">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>73417039</v>
       </c>
@@ -8198,8 +8822,11 @@
       <c r="I204">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>60239566</v>
       </c>
@@ -8227,8 +8854,11 @@
       <c r="I205">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>60283901</v>
       </c>
@@ -8256,8 +8886,11 @@
       <c r="I206">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>71646412</v>
       </c>
@@ -8285,8 +8918,11 @@
       <c r="I207">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>60159219</v>
       </c>
@@ -8314,8 +8950,11 @@
       <c r="I208">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>60331001</v>
       </c>
@@ -8343,8 +8982,11 @@
       <c r="I209">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>60918783</v>
       </c>
@@ -8372,8 +9014,11 @@
       <c r="I210">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>60158306</v>
       </c>
@@ -8401,8 +9046,11 @@
       <c r="I211">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>76039949</v>
       </c>
@@ -8430,8 +9078,11 @@
       <c r="I212">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>60196978</v>
       </c>
@@ -8459,8 +9110,11 @@
       <c r="I213">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>60338044</v>
       </c>
@@ -8488,8 +9142,11 @@
       <c r="I214">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>60425853</v>
       </c>
@@ -8517,8 +9174,11 @@
       <c r="I215">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>61585307</v>
       </c>
@@ -8546,8 +9206,11 @@
       <c r="I216">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>60269921</v>
       </c>
@@ -8575,8 +9238,11 @@
       <c r="I217">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>61129851</v>
       </c>
@@ -8604,8 +9270,11 @@
       <c r="I218">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>60513101</v>
       </c>
@@ -8633,8 +9302,11 @@
       <c r="I219">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>61297141</v>
       </c>
@@ -8661,6 +9333,9 @@
       </c>
       <c r="I220">
         <v>8</v>
+      </c>
+      <c r="J220" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/padron.xlsx
+++ b/padron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\padron_fotografico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC92A6-E77A-4B24-A3B3-15B14134C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5D537-97CE-4F2D-A384-05758C4FA891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92F69589-EE0D-456F-921F-F4259C09A3E6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$221</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="626">
   <si>
     <t>DNI</t>
   </si>
@@ -1900,6 +1900,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE VASQUEZ, JEILER NIXON</t>
+  </si>
+  <si>
+    <t>JEILER NIXON</t>
   </si>
 </sst>
 </file>
@@ -2281,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F138C062-E54C-4F51-A96C-F2A7888B6AA6}">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,7 +2394,7 @@
         <v>100022</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>623</v>
@@ -2420,7 +2426,7 @@
         <v>100023</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>623</v>
@@ -2452,7 +2458,7 @@
         <v>100024</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>623</v>
@@ -2484,7 +2490,7 @@
         <v>100025</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>623</v>
@@ -2516,7 +2522,7 @@
         <v>100002</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
         <v>622</v>
@@ -2548,7 +2554,7 @@
         <v>100026</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>623</v>
@@ -2580,7 +2586,7 @@
         <v>100027</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>623</v>
@@ -2644,7 +2650,7 @@
         <v>100028</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
         <v>623</v>
@@ -2676,7 +2682,7 @@
         <v>100029</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>623</v>
@@ -2740,7 +2746,7 @@
         <v>100030</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
         <v>623</v>
@@ -2772,7 +2778,7 @@
         <v>100003</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>622</v>
@@ -2804,7 +2810,7 @@
         <v>100031</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
         <v>623</v>
@@ -2836,7 +2842,7 @@
         <v>100032</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
         <v>623</v>
@@ -2868,7 +2874,7 @@
         <v>100004</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>622</v>
@@ -2900,7 +2906,7 @@
         <v>100005</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>622</v>
@@ -2932,7 +2938,7 @@
         <v>100033</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
         <v>623</v>
@@ -2964,7 +2970,7 @@
         <v>100034</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
         <v>623</v>
@@ -3092,7 +3098,7 @@
         <v>100035</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>623</v>
@@ -3124,7 +3130,7 @@
         <v>100006</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>622</v>
@@ -3156,7 +3162,7 @@
         <v>100036</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
         <v>623</v>
@@ -3220,7 +3226,7 @@
         <v>100130</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>621</v>
@@ -3228,10 +3234,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>61228739</v>
+        <v>73414200</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>624</v>
       </c>
       <c r="C30" t="s">
         <v>97</v>
@@ -3240,39 +3246,39 @@
         <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>625</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>100037</v>
+        <v>100220</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>60154801</v>
+        <v>61228739</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -3281,10 +3287,10 @@
         <v>17</v>
       </c>
       <c r="H31">
-        <v>100038</v>
+        <v>100037</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>623</v>
@@ -3292,74 +3298,74 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>72350176</v>
+        <v>60154801</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>100211</v>
+        <v>100038</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>61027677</v>
+        <v>72350176</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H33">
-        <v>100039</v>
+        <v>100211</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>61027678</v>
+        <v>61027677</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
         <v>119</v>
@@ -3368,7 +3374,7 @@
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -3377,10 +3383,10 @@
         <v>17</v>
       </c>
       <c r="H34">
-        <v>100040</v>
+        <v>100039</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
         <v>623</v>
@@ -3388,19 +3394,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>72442157</v>
+        <v>61027678</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -3409,10 +3415,10 @@
         <v>17</v>
       </c>
       <c r="H35">
-        <v>100041</v>
+        <v>100040</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
         <v>623</v>
@@ -3420,19 +3426,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>60847529</v>
+        <v>72442157</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -3441,10 +3447,10 @@
         <v>17</v>
       </c>
       <c r="H36">
-        <v>100042</v>
+        <v>100041</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36" t="s">
         <v>623</v>
@@ -3452,83 +3458,83 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>61228857</v>
+        <v>60847529</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H37">
-        <v>100131</v>
+        <v>100042</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>60053791</v>
+        <v>61228857</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H38">
-        <v>100043</v>
+        <v>100131</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>60425761</v>
+        <v>60053791</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
         <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -3537,10 +3543,10 @@
         <v>17</v>
       </c>
       <c r="H39">
-        <v>100044</v>
+        <v>100043</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
         <v>623</v>
@@ -3548,19 +3554,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>60918991</v>
+        <v>60425761</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
         <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -3569,10 +3575,10 @@
         <v>17</v>
       </c>
       <c r="H40">
-        <v>100045</v>
+        <v>100044</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
         <v>623</v>
@@ -3580,83 +3586,83 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>75608781</v>
+        <v>60918991</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
         <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>100007</v>
+        <v>100045</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>60298419</v>
+        <v>75608781</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>100046</v>
+        <v>100007</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>60426010</v>
+        <v>60298419</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -3665,10 +3671,10 @@
         <v>17</v>
       </c>
       <c r="H43">
-        <v>100047</v>
+        <v>100046</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>623</v>
@@ -3676,19 +3682,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>60503800</v>
+        <v>60426010</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
         <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -3697,10 +3703,10 @@
         <v>17</v>
       </c>
       <c r="H44">
-        <v>100048</v>
+        <v>100047</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>623</v>
@@ -3708,19 +3714,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>60553022</v>
+        <v>60503800</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
         <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -3729,10 +3735,10 @@
         <v>17</v>
       </c>
       <c r="H45">
-        <v>100049</v>
+        <v>100048</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J45" t="s">
         <v>623</v>
@@ -3740,19 +3746,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>60447503</v>
+        <v>60553022</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -3761,10 +3767,10 @@
         <v>17</v>
       </c>
       <c r="H46">
-        <v>100050</v>
+        <v>100049</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
         <v>623</v>
@@ -3772,63 +3778,63 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>71820316</v>
+        <v>60447503</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H47">
-        <v>100132</v>
+        <v>100050</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>60344199</v>
+        <v>71820316</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H48">
-        <v>100212</v>
+        <v>100132</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>621</v>
@@ -3836,51 +3842,51 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>60551124</v>
+        <v>60344199</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H49">
-        <v>100051</v>
+        <v>100212</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>76847518</v>
+        <v>60551124</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -3889,10 +3895,10 @@
         <v>17</v>
       </c>
       <c r="H50">
-        <v>100052</v>
+        <v>100051</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J50" t="s">
         <v>623</v>
@@ -3900,83 +3906,83 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>72390991</v>
+        <v>76847518</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
         <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H51">
-        <v>100133</v>
+        <v>100052</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>72278782</v>
+        <v>72390991</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H52">
-        <v>100053</v>
+        <v>100133</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>60918791</v>
+        <v>72278782</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -3985,10 +3991,10 @@
         <v>17</v>
       </c>
       <c r="H53">
-        <v>100054</v>
+        <v>100053</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
         <v>623</v>
@@ -3996,19 +4002,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>60248749</v>
+        <v>60918791</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -4017,10 +4023,10 @@
         <v>17</v>
       </c>
       <c r="H54">
-        <v>100055</v>
+        <v>100054</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J54" t="s">
         <v>623</v>
@@ -4028,51 +4034,51 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>61061983</v>
+        <v>60248749</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H55">
-        <v>100134</v>
+        <v>100055</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J55" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>60552963</v>
+        <v>61061983</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -4081,10 +4087,10 @@
         <v>45</v>
       </c>
       <c r="H56">
-        <v>100135</v>
+        <v>100134</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>621</v>
@@ -4092,31 +4098,31 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>61027718</v>
+        <v>60552963</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H57">
-        <v>100195</v>
+        <v>100135</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>621</v>
@@ -4124,115 +4130,115 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>71707255</v>
+        <v>61027718</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H58">
-        <v>100056</v>
+        <v>100195</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>76092400</v>
+        <v>71707255</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H59">
-        <v>100008</v>
+        <v>100056</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>61228908</v>
+        <v>76092400</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>100057</v>
+        <v>100008</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61224791</v>
+        <v>61228908</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -4241,10 +4247,10 @@
         <v>17</v>
       </c>
       <c r="H61">
-        <v>100058</v>
+        <v>100057</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J61" t="s">
         <v>623</v>
@@ -4252,19 +4258,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>70630956</v>
+        <v>61224791</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C62" t="s">
         <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -4273,10 +4279,10 @@
         <v>17</v>
       </c>
       <c r="H62">
-        <v>100059</v>
+        <v>100058</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J62" t="s">
         <v>623</v>
@@ -4284,19 +4290,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>61229070</v>
+        <v>70630956</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -4305,10 +4311,10 @@
         <v>17</v>
       </c>
       <c r="H63">
-        <v>100060</v>
+        <v>100059</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J63" t="s">
         <v>623</v>
@@ -4316,19 +4322,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>60204791</v>
+        <v>61229070</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
         <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
@@ -4337,10 +4343,10 @@
         <v>17</v>
       </c>
       <c r="H64">
-        <v>100061</v>
+        <v>100060</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J64" t="s">
         <v>623</v>
@@ -4348,19 +4354,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>60918827</v>
+        <v>60204791</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
         <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -4369,10 +4375,10 @@
         <v>17</v>
       </c>
       <c r="H65">
-        <v>100062</v>
+        <v>100061</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J65" t="s">
         <v>623</v>
@@ -4380,19 +4386,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>60442262</v>
+        <v>60918827</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -4401,10 +4407,10 @@
         <v>17</v>
       </c>
       <c r="H66">
-        <v>100063</v>
+        <v>100062</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J66" t="s">
         <v>623</v>
@@ -4412,83 +4418,83 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>60356651</v>
+        <v>60442262</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
         <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H67">
-        <v>100196</v>
+        <v>100063</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>60455385</v>
+        <v>60356651</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
         <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H68">
-        <v>100064</v>
+        <v>100196</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>60257760</v>
+        <v>60455385</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -4497,10 +4503,10 @@
         <v>17</v>
       </c>
       <c r="H69">
-        <v>100065</v>
+        <v>100064</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J69" t="s">
         <v>623</v>
@@ -4508,307 +4514,307 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>60283982</v>
+        <v>60257760</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H70">
-        <v>100136</v>
+        <v>100065</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>75412899</v>
+        <v>60283982</v>
       </c>
       <c r="B71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
         <v>158</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H71">
-        <v>100066</v>
+        <v>100136</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>60334464</v>
+        <v>75412899</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
         <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H72">
-        <v>100009</v>
+        <v>100066</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>61061830</v>
+        <v>60334464</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
         <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E73" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>100067</v>
+        <v>100009</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>75875810</v>
+        <v>61061830</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H74">
-        <v>100137</v>
+        <v>100067</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>60159363</v>
+        <v>75875810</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>100068</v>
+        <v>100137</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>61028056</v>
+        <v>60159363</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H76">
-        <v>100138</v>
+        <v>100068</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J76" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76686703</v>
+        <v>61028056</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H77">
-        <v>100069</v>
+        <v>100138</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>74442930</v>
+        <v>76686703</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H78">
-        <v>100139</v>
+        <v>100069</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J78" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>60221351</v>
+        <v>74442930</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -4817,10 +4823,10 @@
         <v>45</v>
       </c>
       <c r="H79">
-        <v>100140</v>
+        <v>100139</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>621</v>
@@ -4828,19 +4834,19 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>71575365</v>
+        <v>60221351</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -4849,10 +4855,10 @@
         <v>45</v>
       </c>
       <c r="H80">
-        <v>100141</v>
+        <v>100140</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>621</v>
@@ -4860,10 +4866,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>60155007</v>
+        <v>71575365</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -4872,83 +4878,83 @@
         <v>250</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H81">
-        <v>100070</v>
+        <v>100141</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>75143572</v>
+        <v>60155007</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H82">
-        <v>100142</v>
+        <v>100070</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>60425967</v>
+        <v>75143572</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H83">
-        <v>100197</v>
+        <v>100142</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>621</v>
@@ -4956,31 +4962,31 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>74639179</v>
+        <v>60425967</v>
       </c>
       <c r="B84" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H84">
-        <v>100143</v>
+        <v>100197</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>621</v>
@@ -4988,19 +4994,19 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>60426038</v>
+        <v>74639179</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -5009,10 +5015,10 @@
         <v>45</v>
       </c>
       <c r="H85">
-        <v>100144</v>
+        <v>100143</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>621</v>
@@ -5020,83 +5026,83 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>60334462</v>
+        <v>60426038</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
         <v>264</v>
       </c>
       <c r="D86" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H86">
-        <v>100071</v>
+        <v>100144</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>61228798</v>
+        <v>60334462</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D87" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E87" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H87">
-        <v>100010</v>
+        <v>100071</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>62009115</v>
+        <v>61228798</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D88" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E88" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -5105,7 +5111,7 @@
         <v>34</v>
       </c>
       <c r="H88">
-        <v>100011</v>
+        <v>100010</v>
       </c>
       <c r="I88">
         <v>4</v>
@@ -5116,127 +5122,127 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>60337372</v>
+        <v>62009115</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
         <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>100145</v>
+        <v>100011</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>76734564</v>
+        <v>60337372</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>100012</v>
+        <v>100145</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>71448050</v>
+        <v>76734564</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
         <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>100213</v>
+        <v>100012</v>
       </c>
       <c r="I91">
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>61027743</v>
+        <v>71448050</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H92">
-        <v>100146</v>
+        <v>100213</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>621</v>
@@ -5244,19 +5250,19 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>60406732</v>
+        <v>61027743</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E93" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
@@ -5265,10 +5271,10 @@
         <v>45</v>
       </c>
       <c r="H93">
-        <v>100147</v>
+        <v>100146</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>621</v>
@@ -5276,19 +5282,19 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>60284228</v>
+        <v>60406732</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C94" t="s">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
@@ -5297,10 +5303,10 @@
         <v>45</v>
       </c>
       <c r="H94">
-        <v>100148</v>
+        <v>100147</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>621</v>
@@ -5308,51 +5314,51 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>60266724</v>
+        <v>60284228</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E95" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>100073</v>
+        <v>100148</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>60484764</v>
+        <v>60266724</v>
       </c>
       <c r="B96" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="E96" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
@@ -5361,10 +5367,10 @@
         <v>17</v>
       </c>
       <c r="H96">
-        <v>100072</v>
+        <v>100073</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J96" t="s">
         <v>623</v>
@@ -5372,83 +5378,83 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>61228933</v>
+        <v>60484764</v>
       </c>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C97" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="D97" t="s">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="E97" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H97">
-        <v>100149</v>
+        <v>100072</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J97" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>71909308</v>
+        <v>61228933</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C98" t="s">
         <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H98">
-        <v>100074</v>
+        <v>100149</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>60600652</v>
+        <v>71909308</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C99" t="s">
         <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="E99" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
@@ -5457,10 +5463,10 @@
         <v>17</v>
       </c>
       <c r="H99">
-        <v>100075</v>
+        <v>100074</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J99" t="s">
         <v>623</v>
@@ -5468,19 +5474,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>61027929</v>
+        <v>60600652</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C100" t="s">
         <v>70</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="E100" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
         <v>12</v>
@@ -5489,10 +5495,10 @@
         <v>17</v>
       </c>
       <c r="H100">
-        <v>100076</v>
+        <v>100075</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J100" t="s">
         <v>623</v>
@@ -5500,10 +5506,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>60225519</v>
+        <v>61027929</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C101" t="s">
         <v>70</v>
@@ -5512,7 +5518,7 @@
         <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
@@ -5521,10 +5527,10 @@
         <v>17</v>
       </c>
       <c r="H101">
-        <v>100077</v>
+        <v>100076</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J101" t="s">
         <v>623</v>
@@ -5532,63 +5538,63 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>60421176</v>
+        <v>60225519</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C102" t="s">
         <v>70</v>
       </c>
       <c r="D102" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H102">
-        <v>100198</v>
+        <v>100077</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J102" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>60158918</v>
+        <v>60421176</v>
       </c>
       <c r="B103" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E103" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H103">
-        <v>100214</v>
+        <v>100198</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>621</v>
@@ -5596,51 +5602,51 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>77067908</v>
+        <v>60158918</v>
       </c>
       <c r="B104" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="E104" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F104" t="s">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H104">
-        <v>100078</v>
+        <v>100214</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>60626551</v>
+        <v>77067908</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C105" t="s">
-        <v>321</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E105" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -5649,10 +5655,10 @@
         <v>17</v>
       </c>
       <c r="H105">
-        <v>100079</v>
+        <v>100078</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J105" t="s">
         <v>623</v>
@@ -5660,63 +5666,63 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>61149325</v>
+        <v>60626551</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D106" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H106">
-        <v>100150</v>
+        <v>100079</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J106" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>61228965</v>
+        <v>61149325</v>
       </c>
       <c r="B107" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C107" t="s">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E107" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H107">
-        <v>100199</v>
+        <v>100150</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>621</v>
@@ -5724,83 +5730,83 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>75955863</v>
+        <v>61228965</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C108" t="s">
         <v>73</v>
       </c>
       <c r="D108" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E108" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H108">
-        <v>100013</v>
+        <v>100199</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>61027697</v>
+        <v>75955863</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C109" t="s">
         <v>73</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="E109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H109">
-        <v>100080</v>
+        <v>100013</v>
       </c>
       <c r="I109">
         <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>74856049</v>
+        <v>61027697</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D110" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="E110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
@@ -5809,10 +5815,10 @@
         <v>17</v>
       </c>
       <c r="H110">
-        <v>100081</v>
+        <v>100080</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J110" t="s">
         <v>623</v>
@@ -5820,63 +5826,63 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>61027745</v>
+        <v>74856049</v>
       </c>
       <c r="B111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
         <v>148</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H111">
-        <v>100151</v>
+        <v>100081</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J111" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>60425789</v>
+        <v>61027745</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C112" t="s">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H112">
-        <v>100200</v>
+        <v>100151</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>621</v>
@@ -5884,127 +5890,127 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>60425895</v>
+        <v>60425789</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H113">
-        <v>100014</v>
+        <v>100200</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>61479554</v>
+        <v>60425895</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
         <v>343</v>
       </c>
       <c r="D114" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>100082</v>
+        <v>100014</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J114" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>74567453</v>
+        <v>61479554</v>
       </c>
       <c r="B115" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C115" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D115" t="s">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="E115" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H115">
-        <v>100201</v>
+        <v>100082</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J115" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>75412792</v>
+        <v>74567453</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C116" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D116" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="E116" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H116">
-        <v>100152</v>
+        <v>100201</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>621</v>
@@ -6012,115 +6018,115 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>60309594</v>
+        <v>75412792</v>
       </c>
       <c r="B117" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="E117" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F117" t="s">
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H117">
-        <v>100083</v>
+        <v>100152</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>60425812</v>
+        <v>60309594</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C118" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E118" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H118">
-        <v>100153</v>
+        <v>100083</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J118" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>60919191</v>
+        <v>60425812</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C119" t="s">
         <v>178</v>
       </c>
       <c r="D119" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="E119" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H119">
-        <v>100084</v>
+        <v>100153</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>61027863</v>
+        <v>60919191</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C120" t="s">
         <v>178</v>
       </c>
       <c r="D120" t="s">
-        <v>363</v>
+        <v>187</v>
       </c>
       <c r="E120" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
@@ -6129,10 +6135,10 @@
         <v>17</v>
       </c>
       <c r="H120">
-        <v>100085</v>
+        <v>100084</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J120" t="s">
         <v>623</v>
@@ -6140,63 +6146,63 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>60154961</v>
+        <v>61027863</v>
       </c>
       <c r="B121" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C121" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D121" t="s">
-        <v>110</v>
+        <v>363</v>
       </c>
       <c r="E121" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H121">
-        <v>100154</v>
+        <v>100085</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J121" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>74037711</v>
+        <v>60154961</v>
       </c>
       <c r="B122" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C122" t="s">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="D122" t="s">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="E122" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H122">
-        <v>100215</v>
+        <v>100154</v>
       </c>
       <c r="I122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>621</v>
@@ -6204,275 +6210,275 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>60158661</v>
+        <v>74037711</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C123" t="s">
         <v>368</v>
       </c>
       <c r="D123" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E123" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H123">
-        <v>100086</v>
+        <v>100215</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>60918775</v>
+        <v>60158661</v>
       </c>
       <c r="B124" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C124" t="s">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="D124" t="s">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="E124" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H124">
-        <v>100155</v>
+        <v>100086</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J124" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>60425985</v>
+        <v>60918775</v>
       </c>
       <c r="B125" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C125" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="D125" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E125" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H125">
-        <v>100015</v>
+        <v>100155</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>60158601</v>
+        <v>60425985</v>
       </c>
       <c r="B126" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="D126" t="s">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>100087</v>
+        <v>100015</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>60052947</v>
+        <v>60158601</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C127" t="s">
         <v>151</v>
       </c>
       <c r="D127" t="s">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="E127" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H127">
-        <v>100216</v>
+        <v>100087</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J127" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>76858142</v>
+        <v>60052947</v>
       </c>
       <c r="B128" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="E128" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H128">
-        <v>100088</v>
+        <v>100216</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>60269956</v>
+        <v>76858142</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
         <v>63</v>
       </c>
       <c r="D129" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="E129" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H129">
-        <v>100156</v>
+        <v>100088</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J129" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>60918907</v>
+        <v>60269956</v>
       </c>
       <c r="B130" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
       </c>
       <c r="D130" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F130" t="s">
         <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>100089</v>
+        <v>100156</v>
       </c>
       <c r="I130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>62725858</v>
+        <v>60918907</v>
       </c>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C131" t="s">
         <v>63</v>
       </c>
       <c r="D131" t="s">
-        <v>372</v>
+        <v>63</v>
       </c>
       <c r="E131" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -6481,10 +6487,10 @@
         <v>17</v>
       </c>
       <c r="H131">
-        <v>100090</v>
+        <v>100089</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J131" t="s">
         <v>623</v>
@@ -6492,83 +6498,83 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>60056387</v>
+        <v>62725858</v>
       </c>
       <c r="B132" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>393</v>
+        <v>63</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="E132" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H132">
-        <v>100202</v>
+        <v>100090</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J132" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>61028016</v>
+        <v>60056387</v>
       </c>
       <c r="B133" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C133" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H133">
-        <v>100091</v>
+        <v>100202</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>60918795</v>
+        <v>61028016</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C134" t="s">
-        <v>250</v>
+        <v>396</v>
       </c>
       <c r="D134" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="E134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
@@ -6577,10 +6583,10 @@
         <v>17</v>
       </c>
       <c r="H134">
-        <v>100092</v>
+        <v>100091</v>
       </c>
       <c r="I134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J134" t="s">
         <v>623</v>
@@ -6588,51 +6594,51 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>60225592</v>
+        <v>60918795</v>
       </c>
       <c r="B135" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C135" t="s">
         <v>250</v>
       </c>
       <c r="D135" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E135" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F135" t="s">
         <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H135">
-        <v>100157</v>
+        <v>100092</v>
       </c>
       <c r="I135">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J135" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>61027886</v>
+        <v>60225592</v>
       </c>
       <c r="B136" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D136" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="E136" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
@@ -6641,10 +6647,10 @@
         <v>45</v>
       </c>
       <c r="H136">
-        <v>100158</v>
+        <v>100157</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>621</v>
@@ -6652,147 +6658,147 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>74635446</v>
+        <v>61027886</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C137" t="s">
         <v>275</v>
       </c>
       <c r="D137" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="E137" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H137">
-        <v>100093</v>
+        <v>100158</v>
       </c>
       <c r="I137">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>60919069</v>
+        <v>74635446</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C138" t="s">
         <v>275</v>
       </c>
       <c r="D138" t="s">
-        <v>408</v>
+        <v>66</v>
       </c>
       <c r="E138" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H138">
-        <v>100159</v>
+        <v>100093</v>
       </c>
       <c r="I138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J138" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>70849706</v>
+        <v>60919069</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C139" t="s">
-        <v>411</v>
+        <v>275</v>
       </c>
       <c r="D139" t="s">
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="E139" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H139">
-        <v>100094</v>
+        <v>100159</v>
       </c>
       <c r="I139">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>60155589</v>
+        <v>70849706</v>
       </c>
       <c r="B140" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C140" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D140" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="E140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F140" t="s">
         <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H140">
-        <v>100160</v>
+        <v>100094</v>
       </c>
       <c r="I140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J140" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>60620874</v>
+        <v>60155589</v>
       </c>
       <c r="B141" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C141" t="s">
         <v>414</v>
       </c>
       <c r="D141" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="E141" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
@@ -6801,10 +6807,10 @@
         <v>45</v>
       </c>
       <c r="H141">
-        <v>100161</v>
+        <v>100160</v>
       </c>
       <c r="I141">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>621</v>
@@ -6812,147 +6818,147 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>60453052</v>
+        <v>60620874</v>
       </c>
       <c r="B142" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C142" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D142" t="s">
-        <v>178</v>
+        <v>417</v>
       </c>
       <c r="E142" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F142" t="s">
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H142">
-        <v>100095</v>
+        <v>100161</v>
       </c>
       <c r="I142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>60337364</v>
+        <v>60453052</v>
       </c>
       <c r="B143" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D143" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="E143" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H143">
-        <v>100016</v>
+        <v>100095</v>
       </c>
       <c r="I143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J143" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>71547997</v>
+        <v>60337364</v>
       </c>
       <c r="B144" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C144" t="s">
-        <v>187</v>
+        <v>423</v>
       </c>
       <c r="D144" t="s">
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="E144" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F144" t="s">
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>100162</v>
+        <v>100016</v>
       </c>
       <c r="I144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>60874252</v>
+        <v>71547997</v>
       </c>
       <c r="B145" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
         <v>187</v>
       </c>
       <c r="D145" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E145" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F145" t="s">
         <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H145">
-        <v>100096</v>
+        <v>100162</v>
       </c>
       <c r="I145">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>60160701</v>
+        <v>60874252</v>
       </c>
       <c r="B146" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C146" t="s">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>429</v>
       </c>
       <c r="E146" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
@@ -6961,10 +6967,10 @@
         <v>17</v>
       </c>
       <c r="H146">
-        <v>100097</v>
+        <v>100096</v>
       </c>
       <c r="I146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J146" t="s">
         <v>623</v>
@@ -6972,19 +6978,19 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>74376780</v>
+        <v>60160701</v>
       </c>
       <c r="B147" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C147" t="s">
         <v>380</v>
       </c>
       <c r="D147" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="E147" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F147" t="s">
         <v>12</v>
@@ -6993,10 +6999,10 @@
         <v>17</v>
       </c>
       <c r="H147">
-        <v>100098</v>
+        <v>100097</v>
       </c>
       <c r="I147">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J147" t="s">
         <v>623</v>
@@ -7004,51 +7010,51 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>75446084</v>
+        <v>74376780</v>
       </c>
       <c r="B148" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C148" t="s">
         <v>380</v>
       </c>
       <c r="D148" t="s">
-        <v>436</v>
+        <v>271</v>
       </c>
       <c r="E148" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F148" t="s">
         <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H148">
-        <v>100163</v>
+        <v>100098</v>
       </c>
       <c r="I148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J148" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>60425894</v>
+        <v>75446084</v>
       </c>
       <c r="B149" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C149" t="s">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="D149" t="s">
-        <v>66</v>
+        <v>436</v>
       </c>
       <c r="E149" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
@@ -7057,10 +7063,10 @@
         <v>45</v>
       </c>
       <c r="H149">
-        <v>100164</v>
+        <v>100163</v>
       </c>
       <c r="I149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>621</v>
@@ -7068,10 +7074,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>75885107</v>
+        <v>60425894</v>
       </c>
       <c r="B150" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s">
         <v>131</v>
@@ -7080,19 +7086,19 @@
         <v>66</v>
       </c>
       <c r="E150" t="s">
-        <v>145</v>
+        <v>439</v>
       </c>
       <c r="F150" t="s">
         <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>100217</v>
+        <v>100164</v>
       </c>
       <c r="I150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>621</v>
@@ -7100,31 +7106,31 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>60216618</v>
+        <v>75885107</v>
       </c>
       <c r="B151" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D151" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="E151" t="s">
-        <v>443</v>
+        <v>145</v>
       </c>
       <c r="F151" t="s">
         <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H151">
-        <v>100165</v>
+        <v>100217</v>
       </c>
       <c r="I151">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>621</v>
@@ -7132,19 +7138,19 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>60500536</v>
+        <v>60216618</v>
       </c>
       <c r="B152" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C152" t="s">
         <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>261</v>
+        <v>442</v>
       </c>
       <c r="E152" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
@@ -7153,10 +7159,10 @@
         <v>45</v>
       </c>
       <c r="H152">
-        <v>100166</v>
+        <v>100165</v>
       </c>
       <c r="I152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>621</v>
@@ -7164,19 +7170,19 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>60403814</v>
+        <v>60500536</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
       </c>
       <c r="D153" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="E153" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
@@ -7185,10 +7191,10 @@
         <v>45</v>
       </c>
       <c r="H153">
-        <v>100167</v>
+        <v>100166</v>
       </c>
       <c r="I153">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>621</v>
@@ -7196,31 +7202,31 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>60216648</v>
+        <v>60403814</v>
       </c>
       <c r="B154" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C154" t="s">
         <v>154</v>
       </c>
       <c r="D154" t="s">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="E154" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F154" t="s">
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>100203</v>
+        <v>100167</v>
       </c>
       <c r="I154">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>621</v>
@@ -7228,51 +7234,51 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>60298429</v>
+        <v>60216648</v>
       </c>
       <c r="B155" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D155" t="s">
-        <v>144</v>
+        <v>449</v>
       </c>
       <c r="E155" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F155" t="s">
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H155">
-        <v>100099</v>
+        <v>100203</v>
       </c>
       <c r="I155">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>73779201</v>
+        <v>60298429</v>
       </c>
       <c r="B156" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C156" t="s">
-        <v>454</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E156" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
@@ -7281,10 +7287,10 @@
         <v>17</v>
       </c>
       <c r="H156">
-        <v>100100</v>
+        <v>100099</v>
       </c>
       <c r="I156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J156" t="s">
         <v>623</v>
@@ -7292,19 +7298,19 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>61228956</v>
+        <v>73779201</v>
       </c>
       <c r="B157" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C157" t="s">
         <v>454</v>
       </c>
       <c r="D157" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="E157" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F157" t="s">
         <v>12</v>
@@ -7313,10 +7319,10 @@
         <v>17</v>
       </c>
       <c r="H157">
-        <v>100101</v>
+        <v>100100</v>
       </c>
       <c r="I157">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J157" t="s">
         <v>623</v>
@@ -7324,83 +7330,83 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>60330901</v>
+        <v>61228956</v>
       </c>
       <c r="B158" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C158" t="s">
         <v>454</v>
       </c>
       <c r="D158" t="s">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="E158" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H158">
-        <v>100017</v>
+        <v>100101</v>
       </c>
       <c r="I158">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J158" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>60154417</v>
+        <v>60330901</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C159" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D159" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="E159" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>100168</v>
+        <v>100017</v>
       </c>
       <c r="I159">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>61027966</v>
+        <v>60154417</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C160" t="s">
         <v>463</v>
       </c>
       <c r="D160" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="E160" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F160" t="s">
         <v>12</v>
@@ -7409,10 +7415,10 @@
         <v>45</v>
       </c>
       <c r="H160">
-        <v>100169</v>
+        <v>100168</v>
       </c>
       <c r="I160">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>621</v>
@@ -7420,211 +7426,211 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>61228706</v>
+        <v>61027966</v>
       </c>
       <c r="B161" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C161" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D161" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="E161" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H161">
-        <v>100102</v>
+        <v>100169</v>
       </c>
       <c r="I161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>60484779</v>
+        <v>61228706</v>
       </c>
       <c r="B162" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C162" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E162" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F162" t="s">
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H162">
-        <v>100018</v>
+        <v>100102</v>
       </c>
       <c r="I162">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J162" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>60225527</v>
+        <v>60484779</v>
       </c>
       <c r="B163" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C163" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="D163" t="s">
-        <v>474</v>
+        <v>28</v>
       </c>
       <c r="E163" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F163" t="s">
         <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>100204</v>
+        <v>100018</v>
       </c>
       <c r="I163">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>76519001</v>
+        <v>60225527</v>
       </c>
       <c r="B164" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C164" t="s">
-        <v>267</v>
+        <v>429</v>
       </c>
       <c r="D164" t="s">
-        <v>55</v>
+        <v>474</v>
       </c>
       <c r="E164" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F164" t="s">
         <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H164">
-        <v>100103</v>
+        <v>100204</v>
       </c>
       <c r="I164">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>60283975</v>
+        <v>76519001</v>
       </c>
       <c r="B165" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C165" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="D165" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="F165" t="s">
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H165">
-        <v>100170</v>
+        <v>100103</v>
       </c>
       <c r="I165">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J165" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>60918846</v>
+        <v>60283975</v>
       </c>
       <c r="B166" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C166" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E166" t="s">
-        <v>480</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H166">
-        <v>100104</v>
+        <v>100170</v>
       </c>
       <c r="I166">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>60311323</v>
+        <v>60918846</v>
       </c>
       <c r="B167" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C167" t="s">
         <v>59</v>
       </c>
       <c r="D167" t="s">
-        <v>482</v>
+        <v>66</v>
       </c>
       <c r="E167" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -7633,10 +7639,10 @@
         <v>17</v>
       </c>
       <c r="H167">
-        <v>100105</v>
+        <v>100104</v>
       </c>
       <c r="I167">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J167" t="s">
         <v>623</v>
@@ -7644,19 +7650,19 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>62180927</v>
+        <v>60311323</v>
       </c>
       <c r="B168" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C168" t="s">
-        <v>485</v>
+        <v>59</v>
       </c>
       <c r="D168" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="E168" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
@@ -7665,10 +7671,10 @@
         <v>17</v>
       </c>
       <c r="H168">
-        <v>100106</v>
+        <v>100105</v>
       </c>
       <c r="I168">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J168" t="s">
         <v>623</v>
@@ -7676,19 +7682,19 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>60425865</v>
+        <v>62180927</v>
       </c>
       <c r="B169" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C169" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E169" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
@@ -7697,10 +7703,10 @@
         <v>17</v>
       </c>
       <c r="H169">
-        <v>100107</v>
+        <v>100106</v>
       </c>
       <c r="I169">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J169" t="s">
         <v>623</v>
@@ -7708,19 +7714,19 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>60426008</v>
+        <v>60425865</v>
       </c>
       <c r="B170" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C170" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D170" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F170" t="s">
         <v>12</v>
@@ -7729,10 +7735,10 @@
         <v>17</v>
       </c>
       <c r="H170">
-        <v>100108</v>
+        <v>100107</v>
       </c>
       <c r="I170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J170" t="s">
         <v>623</v>
@@ -7740,63 +7746,63 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>61228791</v>
+        <v>60426008</v>
       </c>
       <c r="B171" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C171" t="s">
         <v>491</v>
       </c>
       <c r="D171" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E171" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H171">
-        <v>100218</v>
+        <v>100108</v>
       </c>
       <c r="I171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J171" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>61228947</v>
+        <v>61228791</v>
       </c>
       <c r="B172" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C172" t="s">
         <v>491</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E172" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H172">
-        <v>100171</v>
+        <v>100218</v>
       </c>
       <c r="I172">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>621</v>
@@ -7804,19 +7810,19 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>61149379</v>
+        <v>61228947</v>
       </c>
       <c r="B173" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C173" t="s">
         <v>491</v>
       </c>
       <c r="D173" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="E173" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -7825,10 +7831,10 @@
         <v>45</v>
       </c>
       <c r="H173">
-        <v>100172</v>
+        <v>100171</v>
       </c>
       <c r="I173">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>621</v>
@@ -7836,95 +7842,95 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>60154390</v>
+        <v>61149379</v>
       </c>
       <c r="B174" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C174" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D174" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E174" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H174">
-        <v>100109</v>
+        <v>100172</v>
       </c>
       <c r="I174">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>77080866</v>
+        <v>60154390</v>
       </c>
       <c r="B175" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C175" t="s">
         <v>500</v>
       </c>
       <c r="D175" t="s">
-        <v>503</v>
+        <v>94</v>
       </c>
       <c r="E175" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H175">
-        <v>100205</v>
+        <v>100109</v>
       </c>
       <c r="I175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J175" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>60919064</v>
+        <v>77080866</v>
       </c>
       <c r="B176" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C176" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D176" t="s">
-        <v>105</v>
+        <v>503</v>
       </c>
       <c r="E176" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F176" t="s">
         <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H176">
-        <v>100173</v>
+        <v>100205</v>
       </c>
       <c r="I176">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
         <v>621</v>
@@ -7932,115 +7938,115 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>73414275</v>
+        <v>60919064</v>
       </c>
       <c r="B177" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C177" t="s">
         <v>506</v>
       </c>
       <c r="D177" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="E177" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H177">
-        <v>100110</v>
+        <v>100173</v>
       </c>
       <c r="I177">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>61229030</v>
+        <v>73414275</v>
       </c>
       <c r="B178" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>506</v>
       </c>
       <c r="D178" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="E178" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F178" t="s">
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H178">
-        <v>100174</v>
+        <v>100110</v>
       </c>
       <c r="I178">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J178" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>60480657</v>
+        <v>61229030</v>
       </c>
       <c r="B179" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C179" t="s">
         <v>76</v>
       </c>
       <c r="D179" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F179" t="s">
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>100019</v>
+        <v>100174</v>
       </c>
       <c r="I179">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>61028063</v>
+        <v>60480657</v>
       </c>
       <c r="B180" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C180" t="s">
         <v>76</v>
       </c>
       <c r="D180" t="s">
-        <v>515</v>
+        <v>158</v>
       </c>
       <c r="E180" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
@@ -8049,10 +8055,10 @@
         <v>34</v>
       </c>
       <c r="H180">
-        <v>100020</v>
+        <v>100019</v>
       </c>
       <c r="I180">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
         <v>622</v>
@@ -8060,51 +8066,51 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>71799986</v>
+        <v>61028063</v>
       </c>
       <c r="B181" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C181" t="s">
         <v>76</v>
       </c>
       <c r="D181" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E181" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>100175</v>
+        <v>100020</v>
       </c>
       <c r="I181">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>73782162</v>
+        <v>71799986</v>
       </c>
       <c r="B182" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C182" t="s">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="D182" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E182" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -8113,10 +8119,10 @@
         <v>45</v>
       </c>
       <c r="H182">
-        <v>100176</v>
+        <v>100175</v>
       </c>
       <c r="I182">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
         <v>621</v>
@@ -8124,19 +8130,19 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>60136988</v>
+        <v>73782162</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="D183" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E183" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F183" t="s">
         <v>12</v>
@@ -8145,10 +8151,10 @@
         <v>45</v>
       </c>
       <c r="H183">
-        <v>100177</v>
+        <v>100176</v>
       </c>
       <c r="I183">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
         <v>621</v>
@@ -8156,19 +8162,19 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>61027754</v>
+        <v>60136988</v>
       </c>
       <c r="B184" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C184" t="s">
-        <v>527</v>
+        <v>141</v>
       </c>
       <c r="D184" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="E184" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
@@ -8177,10 +8183,10 @@
         <v>45</v>
       </c>
       <c r="H184">
-        <v>100178</v>
+        <v>100177</v>
       </c>
       <c r="I184">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>621</v>
@@ -8188,19 +8194,19 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>60847572</v>
+        <v>61027754</v>
       </c>
       <c r="B185" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C185" t="s">
-        <v>363</v>
+        <v>527</v>
       </c>
       <c r="D185" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E185" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
@@ -8209,10 +8215,10 @@
         <v>45</v>
       </c>
       <c r="H185">
-        <v>100179</v>
+        <v>100178</v>
       </c>
       <c r="I185">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>621</v>
@@ -8220,51 +8226,51 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>60481928</v>
+        <v>60847572</v>
       </c>
       <c r="B186" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C186" t="s">
         <v>363</v>
       </c>
       <c r="D186" t="s">
-        <v>506</v>
+        <v>23</v>
       </c>
       <c r="E186" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H186">
-        <v>100111</v>
+        <v>100179</v>
       </c>
       <c r="I186">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>75934841</v>
+        <v>60481928</v>
       </c>
       <c r="B187" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C187" t="s">
         <v>363</v>
       </c>
       <c r="D187" t="s">
-        <v>110</v>
+        <v>506</v>
       </c>
       <c r="E187" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F187" t="s">
         <v>12</v>
@@ -8273,10 +8279,10 @@
         <v>17</v>
       </c>
       <c r="H187">
-        <v>100112</v>
+        <v>100111</v>
       </c>
       <c r="I187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J187" t="s">
         <v>623</v>
@@ -8284,115 +8290,115 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>76682352</v>
+        <v>75934841</v>
       </c>
       <c r="B188" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C188" t="s">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="D188" t="s">
         <v>110</v>
       </c>
       <c r="E188" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H188">
-        <v>100180</v>
+        <v>100112</v>
       </c>
       <c r="I188">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J188" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>60919078</v>
+        <v>76682352</v>
       </c>
       <c r="B189" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C189" t="s">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E189" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F189" t="s">
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H189">
-        <v>100021</v>
+        <v>100180</v>
       </c>
       <c r="I189">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>60847523</v>
+        <v>60919078</v>
       </c>
       <c r="B190" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C190" t="s">
         <v>538</v>
       </c>
       <c r="D190" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>100181</v>
+        <v>100021</v>
       </c>
       <c r="I190">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>60919181</v>
+        <v>60847523</v>
       </c>
       <c r="B191" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C191" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D191" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="E191" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
@@ -8401,10 +8407,10 @@
         <v>45</v>
       </c>
       <c r="H191">
-        <v>100182</v>
+        <v>100181</v>
       </c>
       <c r="I191">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
         <v>621</v>
@@ -8412,19 +8418,19 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>60052686</v>
+        <v>60919181</v>
       </c>
       <c r="B192" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C192" t="s">
-        <v>372</v>
+        <v>543</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="E192" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F192" t="s">
         <v>12</v>
@@ -8433,10 +8439,10 @@
         <v>45</v>
       </c>
       <c r="H192">
-        <v>100183</v>
+        <v>100182</v>
       </c>
       <c r="I192">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
         <v>621</v>
@@ -8444,83 +8450,83 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>75573813</v>
+        <v>60052686</v>
       </c>
       <c r="B193" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C193" t="s">
-        <v>548</v>
+        <v>372</v>
       </c>
       <c r="D193" t="s">
-        <v>488</v>
+        <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F193" t="s">
         <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H193">
-        <v>100113</v>
+        <v>100183</v>
       </c>
       <c r="I193">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>60248716</v>
+        <v>75573813</v>
       </c>
       <c r="B194" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C194" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>488</v>
       </c>
       <c r="E194" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F194" t="s">
         <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H194">
-        <v>100184</v>
+        <v>100113</v>
       </c>
       <c r="I194">
         <v>8</v>
       </c>
       <c r="J194" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>71967127</v>
+        <v>60248716</v>
       </c>
       <c r="B195" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C195" t="s">
-        <v>190</v>
+        <v>551</v>
       </c>
       <c r="D195" t="s">
-        <v>554</v>
+        <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F195" t="s">
         <v>12</v>
@@ -8529,10 +8535,10 @@
         <v>45</v>
       </c>
       <c r="H195">
-        <v>100185</v>
+        <v>100184</v>
       </c>
       <c r="I195">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
         <v>621</v>
@@ -8540,95 +8546,95 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>61228886</v>
+        <v>71967127</v>
       </c>
       <c r="B196" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C196" t="s">
         <v>190</v>
       </c>
       <c r="D196" t="s">
-        <v>110</v>
+        <v>554</v>
       </c>
       <c r="E196" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F196" t="s">
         <v>12</v>
       </c>
       <c r="G196" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H196">
-        <v>100114</v>
+        <v>100185</v>
       </c>
       <c r="I196">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>60344168</v>
+        <v>61228886</v>
       </c>
       <c r="B197" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C197" t="s">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="D197" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E197" t="s">
-        <v>265</v>
+        <v>557</v>
       </c>
       <c r="F197" t="s">
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H197">
-        <v>100186</v>
+        <v>100114</v>
       </c>
       <c r="I197">
         <v>8</v>
       </c>
       <c r="J197" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>72462782</v>
+        <v>60344168</v>
       </c>
       <c r="B198" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C198" t="s">
-        <v>560</v>
+        <v>316</v>
       </c>
       <c r="D198" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="E198" t="s">
-        <v>561</v>
+        <v>265</v>
       </c>
       <c r="F198" t="s">
         <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H198">
-        <v>100219</v>
+        <v>100186</v>
       </c>
       <c r="I198">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
         <v>621</v>
@@ -8636,51 +8642,51 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>71029535</v>
+        <v>72462782</v>
       </c>
       <c r="B199" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C199" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D199" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E199" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F199" t="s">
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H199">
-        <v>100115</v>
+        <v>100219</v>
       </c>
       <c r="I199">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>60202101</v>
+        <v>71029535</v>
       </c>
       <c r="B200" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C200" t="s">
         <v>563</v>
       </c>
       <c r="D200" t="s">
-        <v>566</v>
+        <v>37</v>
       </c>
       <c r="E200" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F200" t="s">
         <v>12</v>
@@ -8689,7 +8695,7 @@
         <v>17</v>
       </c>
       <c r="H200">
-        <v>100116</v>
+        <v>100115</v>
       </c>
       <c r="I200">
         <v>8</v>
@@ -8700,19 +8706,19 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>60344189</v>
+        <v>60202101</v>
       </c>
       <c r="B201" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C201" t="s">
-        <v>110</v>
+        <v>563</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>566</v>
       </c>
       <c r="E201" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
@@ -8721,7 +8727,7 @@
         <v>17</v>
       </c>
       <c r="H201">
-        <v>100117</v>
+        <v>100116</v>
       </c>
       <c r="I201">
         <v>8</v>
@@ -8732,19 +8738,19 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>60490195</v>
+        <v>60344189</v>
       </c>
       <c r="B202" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C202" t="s">
         <v>110</v>
       </c>
       <c r="D202" t="s">
-        <v>571</v>
+        <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F202" t="s">
         <v>12</v>
@@ -8753,7 +8759,7 @@
         <v>17</v>
       </c>
       <c r="H202">
-        <v>100118</v>
+        <v>100117</v>
       </c>
       <c r="I202">
         <v>8</v>
@@ -8764,115 +8770,115 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>74857361</v>
+        <v>60490195</v>
       </c>
       <c r="B203" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C203" t="s">
         <v>110</v>
       </c>
       <c r="D203" t="s">
-        <v>93</v>
+        <v>571</v>
       </c>
       <c r="E203" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F203" t="s">
         <v>12</v>
       </c>
       <c r="G203" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H203">
-        <v>100187</v>
+        <v>100118</v>
       </c>
       <c r="I203">
         <v>8</v>
       </c>
       <c r="J203" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>73417039</v>
+        <v>74857361</v>
       </c>
       <c r="B204" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C204" t="s">
         <v>110</v>
       </c>
       <c r="D204" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E204" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F204" t="s">
         <v>12</v>
       </c>
       <c r="G204" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H204">
-        <v>100119</v>
+        <v>100187</v>
       </c>
       <c r="I204">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>60239566</v>
+        <v>73417039</v>
       </c>
       <c r="B205" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C205" t="s">
         <v>110</v>
       </c>
       <c r="D205" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="E205" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F205" t="s">
         <v>12</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H205">
-        <v>100188</v>
+        <v>100119</v>
       </c>
       <c r="I205">
         <v>8</v>
       </c>
       <c r="J205" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>60283901</v>
+        <v>60239566</v>
       </c>
       <c r="B206" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C206" t="s">
         <v>110</v>
       </c>
       <c r="D206" t="s">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="E206" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F206" t="s">
         <v>12</v>
@@ -8881,10 +8887,10 @@
         <v>45</v>
       </c>
       <c r="H206">
-        <v>100189</v>
+        <v>100188</v>
       </c>
       <c r="I206">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
         <v>621</v>
@@ -8892,31 +8898,31 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>71646412</v>
+        <v>60283901</v>
       </c>
       <c r="B207" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C207" t="s">
         <v>110</v>
       </c>
       <c r="D207" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E207" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F207" t="s">
         <v>12</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H207">
-        <v>100206</v>
+        <v>100189</v>
       </c>
       <c r="I207">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J207" t="s">
         <v>621</v>
@@ -8924,19 +8930,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>60159219</v>
+        <v>71646412</v>
       </c>
       <c r="B208" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C208" t="s">
         <v>110</v>
       </c>
       <c r="D208" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="E208" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F208" t="s">
         <v>12</v>
@@ -8945,10 +8951,10 @@
         <v>13</v>
       </c>
       <c r="H208">
-        <v>100207</v>
+        <v>100206</v>
       </c>
       <c r="I208">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J208" t="s">
         <v>621</v>
@@ -8956,147 +8962,147 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>60331001</v>
+        <v>60159219</v>
       </c>
       <c r="B209" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C209" t="s">
         <v>110</v>
       </c>
       <c r="D209" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="E209" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F209" t="s">
         <v>12</v>
       </c>
       <c r="G209" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H209">
-        <v>100120</v>
+        <v>100207</v>
       </c>
       <c r="I209">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J209" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>60918783</v>
+        <v>60331001</v>
       </c>
       <c r="B210" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C210" t="s">
         <v>110</v>
       </c>
       <c r="D210" t="s">
-        <v>588</v>
+        <v>24</v>
       </c>
       <c r="E210" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F210" t="s">
         <v>12</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H210">
-        <v>100001</v>
+        <v>100120</v>
       </c>
       <c r="I210">
         <v>8</v>
       </c>
       <c r="J210" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>60158306</v>
+        <v>60918783</v>
       </c>
       <c r="B211" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C211" t="s">
         <v>110</v>
       </c>
       <c r="D211" t="s">
-        <v>110</v>
+        <v>588</v>
       </c>
       <c r="E211" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F211" t="s">
         <v>12</v>
       </c>
       <c r="G211" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H211">
-        <v>100121</v>
+        <v>100001</v>
       </c>
       <c r="I211">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J211" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>76039949</v>
+        <v>60158306</v>
       </c>
       <c r="B212" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C212" t="s">
-        <v>408</v>
+        <v>110</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E212" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F212" t="s">
         <v>12</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H212">
-        <v>100190</v>
+        <v>100121</v>
       </c>
       <c r="I212">
         <v>8</v>
       </c>
       <c r="J212" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>60196978</v>
+        <v>76039949</v>
       </c>
       <c r="B213" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C213" t="s">
-        <v>595</v>
+        <v>408</v>
       </c>
       <c r="D213" t="s">
-        <v>596</v>
+        <v>15</v>
       </c>
       <c r="E213" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F213" t="s">
         <v>12</v>
@@ -9105,10 +9111,10 @@
         <v>45</v>
       </c>
       <c r="H213">
-        <v>100191</v>
+        <v>100190</v>
       </c>
       <c r="I213">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>621</v>
@@ -9116,19 +9122,19 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>60338044</v>
+        <v>60196978</v>
       </c>
       <c r="B214" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C214" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D214" t="s">
-        <v>190</v>
+        <v>596</v>
       </c>
       <c r="E214" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F214" t="s">
         <v>12</v>
@@ -9137,10 +9143,10 @@
         <v>45</v>
       </c>
       <c r="H214">
-        <v>100192</v>
+        <v>100191</v>
       </c>
       <c r="I214">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
         <v>621</v>
@@ -9148,51 +9154,51 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>60425853</v>
+        <v>60338044</v>
       </c>
       <c r="B215" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C215" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D215" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="E215" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F215" t="s">
         <v>12</v>
       </c>
       <c r="G215" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H215">
-        <v>100122</v>
+        <v>100192</v>
       </c>
       <c r="I215">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>61585307</v>
+        <v>60425853</v>
       </c>
       <c r="B216" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C216" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D216" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="E216" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F216" t="s">
         <v>12</v>
@@ -9201,7 +9207,7 @@
         <v>17</v>
       </c>
       <c r="H216">
-        <v>100123</v>
+        <v>100122</v>
       </c>
       <c r="I216">
         <v>8</v>
@@ -9212,83 +9218,83 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>60269921</v>
+        <v>61585307</v>
       </c>
       <c r="B217" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C217" t="s">
-        <v>257</v>
+        <v>605</v>
       </c>
       <c r="D217" t="s">
-        <v>488</v>
+        <v>199</v>
       </c>
       <c r="E217" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F217" t="s">
         <v>12</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H217">
-        <v>100208</v>
+        <v>100123</v>
       </c>
       <c r="I217">
         <v>8</v>
       </c>
       <c r="J217" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>61129851</v>
+        <v>60269921</v>
       </c>
       <c r="B218" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C218" t="s">
-        <v>610</v>
+        <v>257</v>
       </c>
       <c r="D218" t="s">
-        <v>231</v>
+        <v>488</v>
       </c>
       <c r="E218" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F218" t="s">
         <v>12</v>
       </c>
       <c r="G218" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H218">
-        <v>100124</v>
+        <v>100208</v>
       </c>
       <c r="I218">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>60513101</v>
+        <v>61129851</v>
       </c>
       <c r="B219" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C219" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D219" t="s">
-        <v>614</v>
+        <v>231</v>
       </c>
       <c r="E219" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F219" t="s">
         <v>12</v>
@@ -9297,7 +9303,7 @@
         <v>17</v>
       </c>
       <c r="H219">
-        <v>100125</v>
+        <v>100124</v>
       </c>
       <c r="I219">
         <v>8</v>
@@ -9308,19 +9314,19 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>61297141</v>
+        <v>60513101</v>
       </c>
       <c r="B220" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C220" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>614</v>
       </c>
       <c r="E220" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F220" t="s">
         <v>12</v>
@@ -9329,7 +9335,7 @@
         <v>17</v>
       </c>
       <c r="H220">
-        <v>100126</v>
+        <v>100125</v>
       </c>
       <c r="I220">
         <v>8</v>
@@ -9338,7 +9344,40 @@
         <v>623</v>
       </c>
     </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>61297141</v>
+      </c>
+      <c r="B221" t="s">
+        <v>616</v>
+      </c>
+      <c r="C221" t="s">
+        <v>617</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>618</v>
+      </c>
+      <c r="F221" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221">
+        <v>100126</v>
+      </c>
+      <c r="I221">
+        <v>8</v>
+      </c>
+      <c r="J221" t="s">
+        <v>623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>